--- a/Modules/@WirelessPower_LinkCharge_Receiver(TS61002+TS80003)_(20V 4A)/bom.xlsx
+++ b/Modules/@WirelessPower_LinkCharge_Receiver(TS61002+TS80003)_(20V 4A)/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\#WirelessPowerP40_Receiver(TS61002+TS80003)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\@WirelessPower_LinkCharge_Receiver(TS61002+TS80003)_(20V 4A)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798A205-029B-4024-BE2A-CC5510297B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E502FDA-BA10-406A-A473-09AD2A1FD863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="570" windowWidth="15495" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WirelessPowerP40_Receiver" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="175">
   <si>
     <t>1uF 50V</t>
   </si>
@@ -168,9 +168,6 @@
     <t>NCP15XW153J03RC1</t>
   </si>
   <si>
-    <t>Thermistor_NTC</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
@@ -432,10 +429,6 @@
     <t>U6, U7</t>
   </si>
   <si>
-    <t>标号(s)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -444,10 +437,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>装贴数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1nF 250V</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -582,6 +571,30 @@
   </si>
   <si>
     <t>4.7uF 25V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB521S-30C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-523</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标号</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,8 +764,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1184,21 +1206,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1555,1549 +1580,1790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <f>E2*F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">E3*F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G67" si="0">E5*F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1">
         <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="G9">
+      <c r="D9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1">
         <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="G15">
+        <v>161</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1">
         <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="G18">
+      <c r="D18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="G19">
+        <v>135</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s">
         <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="G20">
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="G21">
+        <v>168</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="G23">
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="G26">
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s">
         <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1">
         <v>20</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28">
+        <v>167</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="1">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" t="s">
         <v>39</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="1">
         <v>10</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s">
         <v>41</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1">
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1">
         <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1">
+        <v>100</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41">
-        <v>100</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="1">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44">
-        <v>100</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="1">
+        <v>100</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="1">
+        <v>100</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="1">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="1">
+        <v>100</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="1">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="1">
         <v>2</v>
       </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52">
-        <v>100</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55">
-        <v>100</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="1">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>89</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="1">
+        <v>100</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57">
-        <v>100</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>91</v>
       </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58">
-        <v>100</v>
-      </c>
-      <c r="G58">
+      <c r="D58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="1">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
         <v>44</v>
       </c>
-      <c r="C59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1">
         <v>20</v>
       </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" t="s">
         <v>30</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="1">
         <v>20</v>
       </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" t="s">
         <v>32</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="1">
         <v>20</v>
       </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" t="s">
         <v>34</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" ref="G63" si="1">E63*F63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="1">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f>E65*F65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="1">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68:G74" si="2">E68*F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63">
-        <v>20</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64">
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="1">
         <v>10</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66">
-        <v>20</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67">
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="1">
         <v>5</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G73" si="1">E67*F67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68">
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73">
-        <v>5</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
